--- a/data/case1/19/P2_1.xlsx
+++ b/data/case1/19/P2_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.43301382085444118</v>
+        <v>0.31139146475743473</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999995172872502</v>
+        <v>-0.0099999989425256786</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999995095144669</v>
+        <v>-0.0089999989256561719</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999864148236</v>
+        <v>-0.011999999743572687</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999995176518439</v>
+        <v>-0.0059999989404317944</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999995033308551</v>
+        <v>-0.0059999989113954655</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999404669566</v>
+        <v>-0.019999998735920954</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999401782986</v>
+        <v>-0.019999998729548274</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.044111642750484847</v>
+        <v>-0.0059999988970096396</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999994900294951</v>
+        <v>-0.0059999988928964854</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999994994014969</v>
+        <v>-0.0044999989110259264</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999994869635032</v>
+        <v>-0.046714489894200906</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999994788677569</v>
+        <v>-0.0059999989047945235</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999434588737</v>
+        <v>0.048572899846663908</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999994745068008</v>
+        <v>-0.0059999989096759521</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999994727246708</v>
+        <v>-0.0059999989098988848</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999994704220683</v>
+        <v>-0.0059999989117827113</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999994489131652</v>
+        <v>0.012578419747601544</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.10131226782425529</v>
+        <v>-0.0089999989548896764</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.031521560384746294</v>
+        <v>-0.0089999989458995344</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999995128291488</v>
+        <v>-0.0089999989446525319</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999995122971299</v>
+        <v>-0.008999998943906462</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999995050513704</v>
+        <v>-0.0089999989172815376</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999267003929</v>
+        <v>-0.041999998494822499</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999262865906</v>
+        <v>-0.041999998487141532</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999995017108176</v>
+        <v>0.027738696345132041</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999994995165729</v>
+        <v>-0.0059999989042522905</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999994908235266</v>
+        <v>-0.0059999988807817317</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999442998899</v>
+        <v>-0.011999998792299849</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999384471057</v>
+        <v>-0.019999998685406251</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0017743306890949384</v>
+        <v>-0.02162232322986668</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999373128908</v>
+        <v>-0.020999998659728014</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999994773498599</v>
+        <v>-0.0059999988449481734</v>
       </c>
     </row>
   </sheetData>
